--- a/frontend/public/consent_m_f.xlsx
+++ b/frontend/public/consent_m_f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\marriage-system\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1325290-5D49-40A6-B4E3-02FCCC84DEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B674CFDE-4D61-4C39-A074-ECC55E297FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{041FD1C1-F469-4138-9DDE-F5DD3D14C0F6}"/>
   </bookViews>
@@ -681,185 +681,185 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,6 +872,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -890,44 +926,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1802,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF06905E-7425-4C08-B32A-5C5925F78E54}">
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48:Z48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,43 +1905,43 @@
       <c r="AI3" s="63"/>
     </row>
     <row r="4" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
     </row>
     <row r="5" spans="1:35" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1981,42 +1981,42 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
       <c r="AI6" s="4"/>
     </row>
     <row r="7" spans="1:35" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,27 +2213,27 @@
         <v>11</v>
       </c>
       <c r="C12"/>
-      <c r="D12" s="61">
+      <c r="D12" s="65">
         <f>+APPLICATION!B30</f>
         <v>0</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="62">
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66">
         <f>+APPLICATION!L30</f>
         <v>0</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
       <c r="S12" s="63" t="s">
         <v>12</v>
       </c>
@@ -2265,89 +2265,89 @@
       <c r="D13" s="10"/>
       <c r="E13"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="67">
-        <f>+APPLICATION!L30</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
+      <c r="G13" s="70">
+        <f>+APPLICATION!B34</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
       <c r="AI13" s="12"/>
     </row>
     <row r="14" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="A14" s="71">
         <f>+APPLICATION!B31</f>
         <v>0</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="63" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="63"/>
-      <c r="I14" s="68" t="s">
+      <c r="I14" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
       <c r="O14" s="63" t="s">
         <v>15</v>
       </c>
       <c r="P14" s="63"/>
-      <c r="Q14" s="69">
+      <c r="Q14" s="72">
         <f>+APPLICATION!B8</f>
         <v>0</v>
       </c>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="70">
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="73">
         <f>+APPLICATION!B10</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
       <c r="AI14" s="9"/>
     </row>
     <row r="15" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,27 +2361,27 @@
       <c r="F15" s="12"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" s="67">
+      <c r="I15" s="70">
         <f>+APPLICATION!B34</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
       <c r="AA15" s="12" t="s">
         <v>17</v>
       </c>
@@ -2460,24 +2460,24 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17"/>
-      <c r="W17" s="71">
+      <c r="W17" s="74">
         <f>+Q14</f>
         <v>0</v>
       </c>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="72">
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="75">
         <f>+Z14</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
       <c r="AI17" s="13"/>
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2491,29 +2491,29 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="61">
+      <c r="I18" s="65">
         <f>+APPLICATION!U8</f>
         <v>0</v>
       </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="62">
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="66">
         <f>+APPLICATION!U10</f>
         <v>0</v>
       </c>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
       <c r="Z18" s="8" t="s">
         <v>22</v>
       </c>
@@ -2531,26 +2531,26 @@
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="70">
         <f>+APPLICATION!U15</f>
         <v>0</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
       <c r="S19" s="12" t="s">
         <v>24</v>
       </c>
@@ -2701,94 +2701,94 @@
       <c r="P23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="61">
+      <c r="T23" s="65">
         <f>+D12</f>
         <v>0</v>
       </c>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="62">
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="66">
         <f>+L12</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="T24" s="74">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="T24" s="68">
         <f>+A14</f>
         <v>0</v>
       </c>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="68"/>
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="75" t="s">
+      <c r="T25" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="75"/>
-      <c r="AH25" s="75"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="69"/>
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2844,17 +2844,17 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="76">
+      <c r="Q27" s="61">
         <f ca="1">TODAY()</f>
         <v>46061</v>
       </c>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
       <c r="Y27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2936,42 +2936,42 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="77"/>
-      <c r="AH30" s="77"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
@@ -3173,81 +3173,81 @@
       <c r="AH36" s="63"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="65"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-      <c r="AG37" s="65"/>
-      <c r="AH37" s="65"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="77"/>
+      <c r="Y37" s="77"/>
+      <c r="Z37" s="77"/>
+      <c r="AA37" s="77"/>
+      <c r="AB37" s="77"/>
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="77"/>
+      <c r="AE37" s="77"/>
+      <c r="AF37" s="77"/>
+      <c r="AG37" s="77"/>
+      <c r="AH37" s="77"/>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="76"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="76"/>
+      <c r="X39" s="76"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="76"/>
+      <c r="AB39" s="76"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="76"/>
+      <c r="AE39" s="76"/>
+      <c r="AF39" s="76"/>
+      <c r="AG39" s="76"/>
+      <c r="AH39" s="76"/>
     </row>
     <row r="40" spans="1:34" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -3416,27 +3416,27 @@
       <c r="B45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="65">
         <f>+APPLICATION!U30</f>
         <v>0</v>
       </c>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="62">
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="66">
         <f>+APPLICATION!AD30</f>
         <v>0</v>
       </c>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
       <c r="S45" s="63" t="s">
         <v>12</v>
       </c>
@@ -3465,88 +3465,88 @@
       <c r="B46" s="8"/>
       <c r="D46" s="10"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="67">
+      <c r="G46" s="70">
         <f>+APPLICATION!U34</f>
         <v>0</v>
       </c>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="67"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="67"/>
-      <c r="AE46" s="67"/>
-      <c r="AF46" s="67"/>
-      <c r="AG46" s="67"/>
-      <c r="AH46" s="67"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="70"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="70"/>
+      <c r="Z46" s="70"/>
+      <c r="AA46" s="70"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="70"/>
+      <c r="AD46" s="70"/>
+      <c r="AE46" s="70"/>
+      <c r="AF46" s="70"/>
+      <c r="AG46" s="70"/>
+      <c r="AH46" s="70"/>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="68">
+      <c r="A47" s="71">
         <f>+APPLICATION!U31</f>
         <v>0</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
       <c r="G47" s="63" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="63"/>
-      <c r="I47" s="68" t="s">
+      <c r="I47" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
       <c r="O47" s="63" t="s">
         <v>15</v>
       </c>
       <c r="P47" s="63"/>
-      <c r="Q47" s="69">
+      <c r="Q47" s="72">
         <f>+APPLICATION!U8</f>
         <v>0</v>
       </c>
-      <c r="R47" s="69"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="69"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="69"/>
-      <c r="X47" s="69"/>
-      <c r="Y47" s="69"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="72"/>
+      <c r="Y47" s="72"/>
       <c r="Z47" s="20"/>
-      <c r="AA47" s="70">
+      <c r="AA47" s="73">
         <f>+APPLICATION!U10</f>
         <v>0</v>
       </c>
-      <c r="AB47" s="70"/>
-      <c r="AC47" s="70"/>
-      <c r="AD47" s="70"/>
-      <c r="AE47" s="70"/>
-      <c r="AF47" s="70"/>
-      <c r="AG47" s="70"/>
-      <c r="AH47" s="70"/>
+      <c r="AB47" s="73"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
     </row>
     <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -3556,28 +3556,28 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="F48" s="12"/>
-      <c r="H48" s="67">
+      <c r="H48" s="70">
         <f>+APPLICATION!U34</f>
         <v>0</v>
       </c>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="67"/>
-      <c r="Z48" s="67"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="70"/>
+      <c r="Y48" s="70"/>
+      <c r="Z48" s="70"/>
       <c r="AA48" s="12" t="s">
         <v>17</v>
       </c>
@@ -3644,24 +3644,24 @@
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
-      <c r="W50" s="71">
+      <c r="W50" s="74">
         <f>+Q47</f>
         <v>0</v>
       </c>
-      <c r="X50" s="71"/>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="71"/>
-      <c r="AA50" s="71"/>
-      <c r="AB50" s="71"/>
+      <c r="X50" s="74"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="74"/>
+      <c r="AA50" s="74"/>
+      <c r="AB50" s="74"/>
       <c r="AC50" s="21"/>
-      <c r="AD50" s="72">
+      <c r="AD50" s="75">
         <f>+AA47</f>
         <v>0</v>
       </c>
-      <c r="AE50" s="72"/>
-      <c r="AF50" s="72"/>
-      <c r="AG50" s="72"/>
-      <c r="AH50" s="72"/>
+      <c r="AE50" s="75"/>
+      <c r="AF50" s="75"/>
+      <c r="AG50" s="75"/>
+      <c r="AH50" s="75"/>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -3674,29 +3674,29 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="61">
+      <c r="I51" s="65">
         <f>+APPLICATION!B8</f>
         <v>0</v>
       </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
       <c r="R51" s="22"/>
-      <c r="S51" s="62">
+      <c r="S51" s="66">
         <f>+APPLICATION!B10</f>
         <v>0</v>
       </c>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
+      <c r="T51" s="66"/>
+      <c r="U51" s="66"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="66"/>
+      <c r="X51" s="66"/>
+      <c r="Y51" s="66"/>
       <c r="Z51" s="8" t="s">
         <v>22</v>
       </c>
@@ -3709,26 +3709,26 @@
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="67">
+      <c r="B52" s="70">
         <f>+APPLICATION!B15</f>
         <v>0</v>
       </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="67"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
       <c r="S52" s="12" t="s">
         <v>24</v>
       </c>
@@ -3871,92 +3871,92 @@
       <c r="P56" s="14"/>
       <c r="R56" s="14"/>
       <c r="S56" s="14"/>
-      <c r="T56" s="61">
+      <c r="T56" s="65">
         <f>+D45</f>
         <v>0</v>
       </c>
-      <c r="U56" s="61"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="61"/>
-      <c r="AB56" s="62">
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="65"/>
+      <c r="AA56" s="65"/>
+      <c r="AB56" s="66">
         <f>+L45</f>
         <v>0</v>
       </c>
-      <c r="AC56" s="62"/>
-      <c r="AD56" s="62"/>
-      <c r="AE56" s="62"/>
-      <c r="AF56" s="62"/>
-      <c r="AG56" s="62"/>
-      <c r="AH56" s="62"/>
+      <c r="AC56" s="66"/>
+      <c r="AD56" s="66"/>
+      <c r="AE56" s="66"/>
+      <c r="AF56" s="66"/>
+      <c r="AG56" s="66"/>
+      <c r="AH56" s="66"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="T57" s="74">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="T57" s="68">
         <f>+A47</f>
         <v>0</v>
       </c>
-      <c r="U57" s="74"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
-      <c r="X57" s="74"/>
-      <c r="Y57" s="74"/>
-      <c r="Z57" s="74"/>
-      <c r="AA57" s="74"/>
-      <c r="AB57" s="74"/>
-      <c r="AC57" s="74"/>
-      <c r="AD57" s="74"/>
-      <c r="AE57" s="74"/>
-      <c r="AF57" s="74"/>
-      <c r="AG57" s="74"/>
-      <c r="AH57" s="74"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
+      <c r="AE57" s="68"/>
+      <c r="AF57" s="68"/>
+      <c r="AG57" s="68"/>
+      <c r="AH57" s="68"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="75" t="s">
+      <c r="T58" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="U58" s="75"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
-      <c r="X58" s="75"/>
-      <c r="Y58" s="75"/>
-      <c r="Z58" s="75"/>
-      <c r="AA58" s="75"/>
-      <c r="AB58" s="75"/>
-      <c r="AC58" s="75"/>
-      <c r="AD58" s="75"/>
-      <c r="AE58" s="75"/>
-      <c r="AF58" s="75"/>
-      <c r="AG58" s="75"/>
-      <c r="AH58" s="75"/>
+      <c r="U58" s="69"/>
+      <c r="V58" s="69"/>
+      <c r="W58" s="69"/>
+      <c r="X58" s="69"/>
+      <c r="Y58" s="69"/>
+      <c r="Z58" s="69"/>
+      <c r="AA58" s="69"/>
+      <c r="AB58" s="69"/>
+      <c r="AC58" s="69"/>
+      <c r="AD58" s="69"/>
+      <c r="AE58" s="69"/>
+      <c r="AF58" s="69"/>
+      <c r="AG58" s="69"/>
+      <c r="AH58" s="69"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
@@ -4010,17 +4010,17 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-      <c r="Q60" s="76">
+      <c r="Q60" s="61">
         <f ca="1">TODAY()</f>
         <v>46061</v>
       </c>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="76"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="61"/>
+      <c r="U60" s="61"/>
+      <c r="V60" s="61"/>
+      <c r="W60" s="61"/>
+      <c r="X60" s="61"/>
       <c r="Y60" s="5" t="s">
         <v>30</v>
       </c>
@@ -4099,42 +4099,42 @@
       <c r="AE62" s="2"/>
     </row>
     <row r="63" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="77" t="s">
+      <c r="A63" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="77"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="77"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="77"/>
-      <c r="Q63" s="77"/>
-      <c r="R63" s="77"/>
-      <c r="S63" s="77"/>
-      <c r="T63" s="77"/>
-      <c r="U63" s="77"/>
-      <c r="V63" s="77"/>
-      <c r="W63" s="77"/>
-      <c r="X63" s="77"/>
-      <c r="Y63" s="77"/>
-      <c r="Z63" s="77"/>
-      <c r="AA63" s="77"/>
-      <c r="AB63" s="77"/>
-      <c r="AC63" s="77"/>
-      <c r="AD63" s="77"/>
-      <c r="AE63" s="77"/>
-      <c r="AF63" s="77"/>
-      <c r="AG63" s="77"/>
-      <c r="AH63" s="77"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="62"/>
+      <c r="V63" s="62"/>
+      <c r="W63" s="62"/>
+      <c r="X63" s="62"/>
+      <c r="Y63" s="62"/>
+      <c r="Z63" s="62"/>
+      <c r="AA63" s="62"/>
+      <c r="AB63" s="62"/>
+      <c r="AC63" s="62"/>
+      <c r="AD63" s="62"/>
+      <c r="AE63" s="62"/>
+      <c r="AF63" s="62"/>
+      <c r="AG63" s="62"/>
+      <c r="AH63" s="62"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
@@ -4244,16 +4244,47 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="Q60:X60"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="T56:AA56"/>
-    <mergeCell ref="AB56:AH56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="T57:AH57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="T58:AH58"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AH12"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A4:AI4"/>
+    <mergeCell ref="A6:AH6"/>
+    <mergeCell ref="A8:AH8"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="G13:AH13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:Y14"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="I15:Z15"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="AC17:AH17"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="AB23:AH23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="T24:AH24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="T25:AH25"/>
+    <mergeCell ref="Q27:X27"/>
+    <mergeCell ref="A30:AH30"/>
+    <mergeCell ref="A31:AH31"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A39:AH39"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:AH45"/>
     <mergeCell ref="B52:R52"/>
     <mergeCell ref="G46:AH46"/>
     <mergeCell ref="A47:F47"/>
@@ -4267,47 +4298,16 @@
     <mergeCell ref="AD50:AH50"/>
     <mergeCell ref="I51:Q51"/>
     <mergeCell ref="S51:Y51"/>
-    <mergeCell ref="A39:AH39"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:AH45"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="T23:AA23"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="T24:AH24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="T25:AH25"/>
-    <mergeCell ref="Q27:X27"/>
-    <mergeCell ref="A30:AH30"/>
-    <mergeCell ref="A31:AH31"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="G13:AH13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:Y14"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="I15:Z15"/>
-    <mergeCell ref="W17:AB17"/>
-    <mergeCell ref="AC17:AH17"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AH12"/>
-    <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A3:AI3"/>
-    <mergeCell ref="A4:AI4"/>
-    <mergeCell ref="A6:AH6"/>
-    <mergeCell ref="A8:AH8"/>
+    <mergeCell ref="Q60:X60"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="T56:AA56"/>
+    <mergeCell ref="AB56:AH56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="T57:AH57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="T58:AH58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4361,99 +4361,99 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
     </row>
     <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="113">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="80">
         <v>2026</v>
       </c>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
       <c r="AC3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="114">
+      <c r="AD3" s="81">
         <v>17</v>
       </c>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
     </row>
     <row r="4" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
     </row>
     <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="28">
         <v>4</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83">
         <v>2026</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
@@ -4476,52 +4476,52 @@
       <c r="AH5" s="29"/>
     </row>
     <row r="6" spans="1:35" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117">
+      <c r="A6" s="84">
         <f>+U8</f>
         <v>0</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="118">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85">
         <f>+U9</f>
         <v>0</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="119">
+      <c r="G6" s="85"/>
+      <c r="H6" s="78">
         <f>+U10</f>
         <v>0</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
-      <c r="R6" s="120">
+      <c r="R6" s="86">
         <f>+B8</f>
         <v>0</v>
       </c>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="118">
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="85">
         <f>+B9</f>
         <v>0</v>
       </c>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="119">
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="78">
         <f>+B10</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
       <c r="AF6" s="30"/>
@@ -4529,568 +4529,568 @@
       <c r="AH6" s="30"/>
     </row>
     <row r="7" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="67"/>
     </row>
     <row r="8" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
     </row>
     <row r="9" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
     </row>
     <row r="11" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
     </row>
     <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="108"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
       <c r="AE12" s="91"/>
       <c r="AF12" s="91"/>
       <c r="AG12" s="91"/>
       <c r="AH12" s="91"/>
     </row>
     <row r="13" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="73"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
     </row>
     <row r="14" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
     </row>
     <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
       <c r="M15" s="91"/>
       <c r="N15" s="91"/>
       <c r="O15" s="91"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
       <c r="AF15" s="91"/>
       <c r="AG15" s="91"/>
       <c r="AH15" s="91"/>
       <c r="AI15" s="26"/>
     </row>
     <row r="16" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
     </row>
     <row r="17" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="94"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
     </row>
     <row r="18" spans="2:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
     </row>
     <row r="19" spans="2:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
       <c r="P19" s="32"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
     </row>
     <row r="20" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
       <c r="P20" s="33"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="107"/>
-      <c r="AH20" s="107"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
     </row>
     <row r="21" spans="2:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="99" t="s">
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="100"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="100"/>
+      <c r="AB21" s="100"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="100"/>
     </row>
     <row r="22" spans="2:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="93">
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="104">
         <f>+B10</f>
         <v>0</v>
       </c>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="103"/>
       <c r="AC22" s="91">
         <f>+U10</f>
         <v>0</v>
@@ -5102,28 +5102,28 @@
       <c r="AH22" s="91"/>
     </row>
     <row r="23" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="99">
+      <c r="B23" s="100">
         <f>+H13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
       <c r="U23" s="101">
         <f>+Z13</f>
         <v>0</v>
@@ -5143,77 +5143,77 @@
       <c r="AH23" s="101"/>
     </row>
     <row r="24" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
     </row>
     <row r="25" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="89">
+      <c r="B25" s="92">
         <f>+B15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
       <c r="P25" s="34"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="92">
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="93">
         <f>+U15</f>
         <v>0</v>
       </c>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="92"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="93"/>
       <c r="AF25" s="91">
         <f>+AF15</f>
         <v>0</v>
@@ -5222,37 +5222,37 @@
       <c r="AH25" s="91"/>
     </row>
     <row r="26" spans="2:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="93">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104">
         <f>+B9</f>
         <v>0</v>
       </c>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
       <c r="AD26" s="91">
         <f>+U9</f>
         <v>0</v>
@@ -5263,115 +5263,115 @@
       <c r="AH26" s="91"/>
     </row>
     <row r="27" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="99">
+      <c r="B27" s="100">
         <f>+H13</f>
         <v>0</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="100"/>
     </row>
     <row r="28" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
     </row>
     <row r="29" spans="2:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="96">
+      <c r="B29" s="108">
         <f>+B15</f>
         <v>0</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
       <c r="P29" s="34"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="97">
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="109">
         <f>+U25</f>
         <v>0</v>
       </c>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="97"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="109"/>
       <c r="AF29" s="91">
         <f>+AF25</f>
         <v>0</v>
@@ -5381,19 +5381,19 @@
       <c r="AI29" s="26"/>
     </row>
     <row r="30" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="98">
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="103">
         <f>+K26</f>
         <v>0</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
       <c r="L30" s="91">
         <f>+L22</f>
         <v>0</v>
@@ -5402,22 +5402,22 @@
       <c r="N30" s="91"/>
       <c r="O30" s="91"/>
       <c r="P30" s="35"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="93">
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="104">
         <f>+AD26</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
       <c r="AD30" s="91">
         <f>+AC22</f>
         <v>0</v>
@@ -5428,74 +5428,74 @@
       <c r="AH30" s="91"/>
     </row>
     <row r="31" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="92"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="93"/>
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="93"/>
     </row>
     <row r="32" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="92"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
+      <c r="S32" s="106"/>
+      <c r="T32" s="106"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="93"/>
+      <c r="AG32" s="93"/>
+      <c r="AH32" s="93"/>
     </row>
     <row r="33" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="36"/>
@@ -5513,10 +5513,10 @@
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
@@ -5533,42 +5533,42 @@
       <c r="AH33" s="35"/>
     </row>
     <row r="34" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="89">
+      <c r="B34" s="92">
         <f>+B29</f>
         <v>0</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="90"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="107"/>
       <c r="N34" s="91"/>
       <c r="O34" s="91"/>
       <c r="P34" s="35"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="92">
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="110"/>
+      <c r="T34" s="110"/>
+      <c r="U34" s="93">
         <f>+U29</f>
         <v>0</v>
       </c>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="92"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92"/>
-      <c r="AD34" s="92"/>
-      <c r="AE34" s="92"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
       <c r="AF34" s="91">
         <f>+AF29</f>
         <v>0</v>
@@ -5577,298 +5577,422 @@
       <c r="AH34" s="91"/>
     </row>
     <row r="35" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
       <c r="P35" s="38"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="84"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="84"/>
-      <c r="AF35" s="84"/>
-      <c r="AG35" s="84"/>
-      <c r="AH35" s="84"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="110"/>
+      <c r="AG35" s="110"/>
+      <c r="AH35" s="110"/>
     </row>
     <row r="36" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="84"/>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="84"/>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="84"/>
-      <c r="AG36" s="84"/>
-      <c r="AH36" s="84"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="110"/>
+      <c r="U36" s="110"/>
+      <c r="V36" s="110"/>
+      <c r="W36" s="110"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="110"/>
+      <c r="AH36" s="110"/>
     </row>
     <row r="37" spans="2:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="81"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="113"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="85">
+      <c r="Q37" s="112"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="112"/>
+      <c r="T37" s="112"/>
+      <c r="U37" s="115">
         <f>+B37</f>
         <v>0</v>
       </c>
-      <c r="V37" s="88"/>
-      <c r="W37" s="86">
+      <c r="V37" s="118"/>
+      <c r="W37" s="116">
         <f>+E37</f>
         <v>0</v>
       </c>
-      <c r="X37" s="86"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="86"/>
-      <c r="AA37" s="86"/>
-      <c r="AB37" s="86"/>
-      <c r="AC37" s="86"/>
-      <c r="AD37" s="87">
+      <c r="X37" s="116"/>
+      <c r="Y37" s="116"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="117">
         <f>+L37</f>
         <v>0</v>
       </c>
-      <c r="AE37" s="81"/>
+      <c r="AE37" s="113"/>
       <c r="AF37" s="39"/>
     </row>
     <row r="38" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
       <c r="P38" s="30"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="82" t="s">
+      <c r="Q38" s="112"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="112"/>
+      <c r="T38" s="112"/>
+      <c r="U38" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="V38" s="82"/>
-      <c r="W38" s="82"/>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="82"/>
-      <c r="Z38" s="82"/>
-      <c r="AA38" s="82"/>
-      <c r="AB38" s="82"/>
-      <c r="AC38" s="82"/>
-      <c r="AD38" s="82"/>
-      <c r="AE38" s="82"/>
-      <c r="AF38" s="82"/>
-      <c r="AG38" s="82"/>
-      <c r="AH38" s="82"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="111"/>
+      <c r="AH38" s="111"/>
     </row>
     <row r="39" spans="2:34" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="112"/>
+      <c r="T39" s="112"/>
       <c r="U39" s="30"/>
-      <c r="V39" s="81" t="s">
+      <c r="V39" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="W39" s="81"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="81"/>
-      <c r="Z39" s="81"/>
-      <c r="AA39" s="81"/>
-      <c r="AB39" s="81"/>
-      <c r="AC39" s="81"/>
-      <c r="AD39" s="81"/>
-      <c r="AE39" s="81"/>
-      <c r="AF39" s="81"/>
-      <c r="AG39" s="81"/>
-      <c r="AH39" s="81"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="113"/>
+      <c r="AB39" s="113"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="113"/>
+      <c r="AH39" s="113"/>
     </row>
     <row r="40" spans="2:34" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="80"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
       <c r="U40" s="30"/>
-      <c r="V40" s="80"/>
-      <c r="W40" s="81"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="81"/>
-      <c r="Z40" s="81"/>
-      <c r="AA40" s="81"/>
-      <c r="AB40" s="81"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="81"/>
-      <c r="AE40" s="81"/>
-      <c r="AF40" s="81"/>
-      <c r="AG40" s="81"/>
-      <c r="AH40" s="81"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="113"/>
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="113"/>
+      <c r="AG40" s="113"/>
+      <c r="AH40" s="113"/>
     </row>
     <row r="41" spans="2:34" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
       <c r="P41" s="39"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
       <c r="U41" s="30"/>
-      <c r="V41" s="80"/>
-      <c r="W41" s="80"/>
-      <c r="X41" s="80"/>
-      <c r="Y41" s="80"/>
-      <c r="Z41" s="80"/>
-      <c r="AA41" s="80"/>
-      <c r="AB41" s="80"/>
-      <c r="AC41" s="80"/>
-      <c r="AD41" s="80"/>
-      <c r="AE41" s="80"/>
-      <c r="AF41" s="80"/>
-      <c r="AG41" s="80"/>
-      <c r="AH41" s="80"/>
+      <c r="V41" s="120"/>
+      <c r="W41" s="120"/>
+      <c r="X41" s="120"/>
+      <c r="Y41" s="120"/>
+      <c r="Z41" s="120"/>
+      <c r="AA41" s="120"/>
+      <c r="AB41" s="120"/>
+      <c r="AC41" s="120"/>
+      <c r="AD41" s="120"/>
+      <c r="AE41" s="120"/>
+      <c r="AF41" s="120"/>
+      <c r="AG41" s="120"/>
+      <c r="AH41" s="120"/>
     </row>
     <row r="42" spans="2:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="79"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="79"/>
-      <c r="U42" s="78" t="s">
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="119"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="112"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="112"/>
+      <c r="U42" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="V42" s="78"/>
-      <c r="W42" s="78"/>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="78"/>
-      <c r="AA42" s="78"/>
-      <c r="AB42" s="78"/>
-      <c r="AC42" s="78"/>
-      <c r="AD42" s="78"/>
-      <c r="AE42" s="78"/>
-      <c r="AF42" s="78"/>
-      <c r="AG42" s="78"/>
-      <c r="AH42" s="78"/>
+      <c r="V42" s="119"/>
+      <c r="W42" s="119"/>
+      <c r="X42" s="119"/>
+      <c r="Y42" s="119"/>
+      <c r="Z42" s="119"/>
+      <c r="AA42" s="119"/>
+      <c r="AB42" s="119"/>
+      <c r="AC42" s="119"/>
+      <c r="AD42" s="119"/>
+      <c r="AE42" s="119"/>
+      <c r="AF42" s="119"/>
+      <c r="AG42" s="119"/>
+      <c r="AH42" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="B42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="U42:AH42"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:AH40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:AH41"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="U38:AH38"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="V39:AH39"/>
+    <mergeCell ref="B35:O36"/>
+    <mergeCell ref="Q35:T36"/>
+    <mergeCell ref="U35:AH36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U34:AE34"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="B31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="U31:AH31"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="U32:AH32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:AH27"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:AH28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:AE25"/>
+    <mergeCell ref="AF25:AH25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AH23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="U24:AH24"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AH21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AD19"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:AH20"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AH17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AH18"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AH16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AH14"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AH12"/>
     <mergeCell ref="Y6:AC6"/>
     <mergeCell ref="G2:W2"/>
     <mergeCell ref="G3:W3"/>
@@ -5893,130 +6017,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AH16"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AH14"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AD19"/>
-    <mergeCell ref="AE19:AH19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:AH20"/>
-    <mergeCell ref="B17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AH17"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AH18"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AH23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="U24:AH24"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AH21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AH22"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U27:AH27"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:AH28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:AE25"/>
-    <mergeCell ref="AF25:AH25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="U29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U34:AE34"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="Y30:AC30"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="B31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="U31:AH31"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="U32:AH32"/>
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="U38:AH38"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="V39:AH39"/>
-    <mergeCell ref="B35:O36"/>
-    <mergeCell ref="Q35:T36"/>
-    <mergeCell ref="U35:AH36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="B42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="U42:AH42"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:AH40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:AH41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6098,64 +6098,64 @@
       <c r="G4" s="124"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="121">
@@ -6302,27 +6302,27 @@
       <c r="G4" s="124"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
@@ -6422,78 +6422,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="122" t="s">
@@ -6534,42 +6534,42 @@
       <c r="AH3" s="122"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
@@ -6610,194 +6610,194 @@
       <c r="AH5" s="122"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140"/>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="140"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="140"/>
-      <c r="Y6" s="140"/>
-      <c r="Z6" s="140"/>
-      <c r="AA6" s="140"/>
-      <c r="AB6" s="140"/>
-      <c r="AC6" s="140"/>
-      <c r="AD6" s="140"/>
-      <c r="AE6" s="140"/>
-      <c r="AF6" s="140"/>
-      <c r="AG6" s="140"/>
-      <c r="AH6" s="140"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
       <c r="AI6" s="43"/>
       <c r="AJ6" s="43"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140"/>
-      <c r="R7" s="140"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="140"/>
-      <c r="U7" s="140"/>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="140"/>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="140"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="140"/>
-      <c r="AG7" s="140"/>
-      <c r="AH7" s="140"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
       <c r="AI7" s="43"/>
       <c r="AJ7" s="43"/>
     </row>
     <row r="8" spans="1:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="141"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="127"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="127"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="127"/>
+      <c r="AH8" s="127"/>
     </row>
     <row r="9" spans="1:51" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="142"/>
-      <c r="V9" s="142"/>
-      <c r="W9" s="142"/>
-      <c r="X9" s="142"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="142"/>
-      <c r="AD9" s="142"/>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="142"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="128"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="45"/>
       <c r="AJ9" s="45"/>
     </row>
     <row r="10" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="140"/>
-      <c r="R10" s="140"/>
-      <c r="S10" s="140"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="140"/>
-      <c r="AB10" s="140"/>
-      <c r="AC10" s="140"/>
-      <c r="AD10" s="140"/>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="140"/>
-      <c r="AG10" s="140"/>
-      <c r="AH10" s="140"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
       <c r="AI10" s="45"/>
       <c r="AJ10" s="45"/>
     </row>
@@ -6838,27 +6838,27 @@
       <c r="AJ11" s="45"/>
     </row>
     <row r="12" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="143">
+      <c r="A12" s="129">
         <f>+APPLICATION!B8</f>
         <v>0</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="H12" s="47"/>
-      <c r="I12" s="138">
+      <c r="I12" s="131">
         <f>+APPLICATION!B10</f>
         <v>0</v>
       </c>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="139"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="132"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -6932,23 +6932,23 @@
       <c r="AY13" s="45"/>
     </row>
     <row r="14" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
@@ -7037,27 +7037,27 @@
       <c r="AY15" s="45"/>
     </row>
     <row r="16" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136">
+      <c r="A16" s="133">
         <f>+APPLICATION!U8</f>
         <v>0</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
       <c r="H16" s="49"/>
-      <c r="I16" s="138">
+      <c r="I16" s="131">
         <f>+APPLICATION!U10</f>
         <v>0</v>
       </c>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="139"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="132"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="46"/>
       <c r="AA16" s="46"/>
@@ -7138,7 +7138,7 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="108">
+      <c r="F20" s="89">
         <f>+APPLICATION!B12</f>
         <v>0</v>
       </c>
@@ -7191,22 +7191,22 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="93">
         <f>+APPLICATION!B15</f>
         <v>0</v>
       </c>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
       <c r="T21" s="124" t="s">
         <v>44</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="108">
+      <c r="F26" s="89">
         <f>+APPLICATION!U12</f>
         <v>0</v>
       </c>
@@ -7347,22 +7347,22 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="109">
+      <c r="F27" s="94">
         <f>+APPLICATION!U15</f>
         <v>0</v>
       </c>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
       <c r="T27" s="124" t="s">
         <v>44</v>
       </c>
@@ -7396,18 +7396,18 @@
         <f>+APPLICATION!B37</f>
         <v>0</v>
       </c>
-      <c r="B32" s="132">
+      <c r="B32" s="136">
         <f>+APPLICATION!E37</f>
         <v>0</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="133">
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="137">
         <f>+APPLICATION!L37</f>
         <v>0</v>
       </c>
-      <c r="G32" s="132"/>
+      <c r="G32" s="136"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="23"/>
@@ -7421,21 +7421,21 @@
       <c r="Y32" s="55"/>
       <c r="Z32" s="55"/>
       <c r="AA32" s="55"/>
-      <c r="AB32" s="134">
+      <c r="AB32" s="144">
         <f>+APPLICATION!X3</f>
         <v>2026</v>
       </c>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="134"/>
+      <c r="AC32" s="144"/>
+      <c r="AD32" s="144"/>
       <c r="AE32" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AF32" s="130">
+      <c r="AF32" s="142">
         <f>+APPLICATION!AD3</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="130"/>
-      <c r="AH32" s="130"/>
+      <c r="AG32" s="142"/>
+      <c r="AH32" s="142"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C33" s="122" t="s">
@@ -7446,18 +7446,18 @@
       <c r="Z33" s="58"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V35" s="78" t="s">
+      <c r="V35" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="78"/>
-      <c r="AB35" s="78"/>
-      <c r="AC35" s="78"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="78"/>
+      <c r="W35" s="119"/>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="119"/>
+      <c r="Z35" s="119"/>
+      <c r="AA35" s="119"/>
+      <c r="AB35" s="119"/>
+      <c r="AC35" s="119"/>
+      <c r="AD35" s="119"/>
+      <c r="AE35" s="119"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V36" s="122" t="s">
@@ -7479,35 +7479,35 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="131" t="str">
+      <c r="A40" s="143" t="str">
         <f>+APPLICATION!F4</f>
         <v>BERNADETTE T. SAMANDRE</v>
       </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="143"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
     </row>
     <row r="42" spans="1:31" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -7522,21 +7522,21 @@
       <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="126">
+      <c r="E44" s="138">
         <f>+F26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="127"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="139"/>
+      <c r="N44" s="139"/>
+      <c r="O44" s="139"/>
+      <c r="P44" s="139"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7545,18 +7545,18 @@
       <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="128"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="129"/>
-      <c r="P45" s="129"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="141"/>
+      <c r="L45" s="141"/>
+      <c r="M45" s="141"/>
+      <c r="N45" s="141"/>
+      <c r="O45" s="141"/>
+      <c r="P45" s="141"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
@@ -7565,18 +7565,18 @@
       <c r="B46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="128"/>
-      <c r="O46" s="128"/>
-      <c r="P46" s="128"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="140"/>
+      <c r="O46" s="140"/>
+      <c r="P46" s="140"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7606,43 +7606,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A6:AH6"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AH5"/>
-    <mergeCell ref="A7:AH7"/>
-    <mergeCell ref="A8:AH8"/>
-    <mergeCell ref="A9:AG9"/>
-    <mergeCell ref="A10:AH10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:R27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="E44:P44"/>
     <mergeCell ref="E45:P45"/>
     <mergeCell ref="E46:P46"/>
@@ -7653,6 +7616,43 @@
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="A41:K41"/>
     <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:R27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="A7:AH7"/>
+    <mergeCell ref="A8:AH8"/>
+    <mergeCell ref="A9:AG9"/>
+    <mergeCell ref="A10:AH10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="A6:AH6"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AH5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/frontend/public/consent_m_f.xlsx
+++ b/frontend/public/consent_m_f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\marriage-system\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B674CFDE-4D61-4C39-A074-ECC55E297FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8291AE54-D67A-496C-B45D-EF7CFB048277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{041FD1C1-F469-4138-9DDE-F5DD3D14C0F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{041FD1C1-F469-4138-9DDE-F5DD3D14C0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSENT M&amp;F" sheetId="1" r:id="rId1"/>
@@ -681,63 +681,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -754,112 +859,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,6 +872,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -886,48 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1802,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF06905E-7425-4C08-B32A-5C5925F78E54}">
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:AH13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="BD18" sqref="BD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,43 +1905,43 @@
       <c r="AI3" s="63"/>
     </row>
     <row r="4" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
     </row>
     <row r="5" spans="1:35" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1981,42 +1981,42 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
       <c r="AI6" s="4"/>
     </row>
     <row r="7" spans="1:35" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,27 +2213,27 @@
         <v>11</v>
       </c>
       <c r="C12"/>
-      <c r="D12" s="65">
+      <c r="D12" s="61">
         <f>+APPLICATION!B30</f>
         <v>0</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66">
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62">
         <f>+APPLICATION!L30</f>
         <v>0</v>
       </c>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
       <c r="S12" s="63" t="s">
         <v>12</v>
       </c>
@@ -2265,89 +2265,89 @@
       <c r="D13" s="10"/>
       <c r="E13"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="70">
+      <c r="G13" s="67">
         <f>+APPLICATION!B34</f>
         <v>0</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
       <c r="AI13" s="12"/>
     </row>
     <row r="14" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="A14" s="68">
         <f>+APPLICATION!B31</f>
         <v>0</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="63" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="63"/>
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
       <c r="O14" s="63" t="s">
         <v>15</v>
       </c>
       <c r="P14" s="63"/>
-      <c r="Q14" s="72">
+      <c r="Q14" s="69">
         <f>+APPLICATION!B8</f>
         <v>0</v>
       </c>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="73">
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="70">
         <f>+APPLICATION!B10</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
       <c r="AI14" s="9"/>
     </row>
     <row r="15" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,27 +2361,27 @@
       <c r="F15" s="12"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" s="70">
+      <c r="I15" s="67">
         <f>+APPLICATION!B34</f>
         <v>0</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
       <c r="AA15" s="12" t="s">
         <v>17</v>
       </c>
@@ -2460,24 +2460,24 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17"/>
-      <c r="W17" s="74">
+      <c r="W17" s="71">
         <f>+Q14</f>
         <v>0</v>
       </c>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="75">
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="72">
         <f>+Z14</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
       <c r="AI17" s="13"/>
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2491,29 +2491,29 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="65">
+      <c r="I18" s="61">
         <f>+APPLICATION!U8</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="66">
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="62">
         <f>+APPLICATION!U10</f>
         <v>0</v>
       </c>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
       <c r="Z18" s="8" t="s">
         <v>22</v>
       </c>
@@ -2531,26 +2531,26 @@
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="70">
+      <c r="B19" s="67">
         <f>+APPLICATION!U15</f>
         <v>0</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
       <c r="S19" s="12" t="s">
         <v>24</v>
       </c>
@@ -2701,94 +2701,94 @@
       <c r="P23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="65">
+      <c r="T23" s="61">
         <f>+D12</f>
         <v>0</v>
       </c>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="66">
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="62">
         <f>+L12</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="T24" s="68">
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="T24" s="74">
         <f>+A14</f>
         <v>0</v>
       </c>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="68"/>
-      <c r="AF24" s="68"/>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="68"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="69" t="s">
+      <c r="T25" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="69"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2844,17 +2844,17 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="61">
+      <c r="Q27" s="76">
         <f ca="1">TODAY()</f>
         <v>46061</v>
       </c>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
       <c r="Y27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2936,42 +2936,42 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
@@ -3173,81 +3173,81 @@
       <c r="AH36" s="63"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77"/>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77"/>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77"/>
-      <c r="Y37" s="77"/>
-      <c r="Z37" s="77"/>
-      <c r="AA37" s="77"/>
-      <c r="AB37" s="77"/>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="77"/>
-      <c r="AE37" s="77"/>
-      <c r="AF37" s="77"/>
-      <c r="AG37" s="77"/>
-      <c r="AH37" s="77"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="65"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="65"/>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="76"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="76"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="76"/>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="76"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="76"/>
-      <c r="AC39" s="76"/>
-      <c r="AD39" s="76"/>
-      <c r="AE39" s="76"/>
-      <c r="AF39" s="76"/>
-      <c r="AG39" s="76"/>
-      <c r="AH39" s="76"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
     </row>
     <row r="40" spans="1:34" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -3416,27 +3416,27 @@
       <c r="B45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="65">
+      <c r="D45" s="61">
         <f>+APPLICATION!U30</f>
         <v>0</v>
       </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="66">
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="62">
         <f>+APPLICATION!AD30</f>
         <v>0</v>
       </c>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
       <c r="S45" s="63" t="s">
         <v>12</v>
       </c>
@@ -3465,88 +3465,88 @@
       <c r="B46" s="8"/>
       <c r="D46" s="10"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="70">
+      <c r="G46" s="67">
         <f>+APPLICATION!U34</f>
         <v>0</v>
       </c>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="70"/>
-      <c r="S46" s="70"/>
-      <c r="T46" s="70"/>
-      <c r="U46" s="70"/>
-      <c r="V46" s="70"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
-      <c r="Y46" s="70"/>
-      <c r="Z46" s="70"/>
-      <c r="AA46" s="70"/>
-      <c r="AB46" s="70"/>
-      <c r="AC46" s="70"/>
-      <c r="AD46" s="70"/>
-      <c r="AE46" s="70"/>
-      <c r="AF46" s="70"/>
-      <c r="AG46" s="70"/>
-      <c r="AH46" s="70"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
+      <c r="Y46" s="67"/>
+      <c r="Z46" s="67"/>
+      <c r="AA46" s="67"/>
+      <c r="AB46" s="67"/>
+      <c r="AC46" s="67"/>
+      <c r="AD46" s="67"/>
+      <c r="AE46" s="67"/>
+      <c r="AF46" s="67"/>
+      <c r="AG46" s="67"/>
+      <c r="AH46" s="67"/>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71">
+      <c r="A47" s="68">
         <f>+APPLICATION!U31</f>
         <v>0</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
       <c r="G47" s="63" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="63"/>
-      <c r="I47" s="71" t="s">
+      <c r="I47" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
       <c r="O47" s="63" t="s">
         <v>15</v>
       </c>
       <c r="P47" s="63"/>
-      <c r="Q47" s="72">
+      <c r="Q47" s="69">
         <f>+APPLICATION!U8</f>
         <v>0</v>
       </c>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="69"/>
+      <c r="X47" s="69"/>
+      <c r="Y47" s="69"/>
       <c r="Z47" s="20"/>
-      <c r="AA47" s="73">
+      <c r="AA47" s="70">
         <f>+APPLICATION!U10</f>
         <v>0</v>
       </c>
-      <c r="AB47" s="73"/>
-      <c r="AC47" s="73"/>
-      <c r="AD47" s="73"/>
-      <c r="AE47" s="73"/>
-      <c r="AF47" s="73"/>
-      <c r="AG47" s="73"/>
-      <c r="AH47" s="73"/>
+      <c r="AB47" s="70"/>
+      <c r="AC47" s="70"/>
+      <c r="AD47" s="70"/>
+      <c r="AE47" s="70"/>
+      <c r="AF47" s="70"/>
+      <c r="AG47" s="70"/>
+      <c r="AH47" s="70"/>
     </row>
     <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -3556,28 +3556,28 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="F48" s="12"/>
-      <c r="H48" s="70">
+      <c r="H48" s="67">
         <f>+APPLICATION!U34</f>
         <v>0</v>
       </c>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70"/>
-      <c r="Z48" s="70"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="67"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
+      <c r="Y48" s="67"/>
+      <c r="Z48" s="67"/>
       <c r="AA48" s="12" t="s">
         <v>17</v>
       </c>
@@ -3644,24 +3644,24 @@
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
-      <c r="W50" s="74">
+      <c r="W50" s="71">
         <f>+Q47</f>
         <v>0</v>
       </c>
-      <c r="X50" s="74"/>
-      <c r="Y50" s="74"/>
-      <c r="Z50" s="74"/>
-      <c r="AA50" s="74"/>
-      <c r="AB50" s="74"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="71"/>
+      <c r="AA50" s="71"/>
+      <c r="AB50" s="71"/>
       <c r="AC50" s="21"/>
-      <c r="AD50" s="75">
+      <c r="AD50" s="72">
         <f>+AA47</f>
         <v>0</v>
       </c>
-      <c r="AE50" s="75"/>
-      <c r="AF50" s="75"/>
-      <c r="AG50" s="75"/>
-      <c r="AH50" s="75"/>
+      <c r="AE50" s="72"/>
+      <c r="AF50" s="72"/>
+      <c r="AG50" s="72"/>
+      <c r="AH50" s="72"/>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -3674,29 +3674,29 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="65">
+      <c r="I51" s="61">
         <f>+APPLICATION!B8</f>
         <v>0</v>
       </c>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
       <c r="R51" s="22"/>
-      <c r="S51" s="66">
+      <c r="S51" s="62">
         <f>+APPLICATION!B10</f>
         <v>0</v>
       </c>
-      <c r="T51" s="66"/>
-      <c r="U51" s="66"/>
-      <c r="V51" s="66"/>
-      <c r="W51" s="66"/>
-      <c r="X51" s="66"/>
-      <c r="Y51" s="66"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="62"/>
       <c r="Z51" s="8" t="s">
         <v>22</v>
       </c>
@@ -3709,26 +3709,26 @@
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="70">
+      <c r="B52" s="67">
         <f>+APPLICATION!B15</f>
         <v>0</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="67"/>
       <c r="S52" s="12" t="s">
         <v>24</v>
       </c>
@@ -3871,92 +3871,92 @@
       <c r="P56" s="14"/>
       <c r="R56" s="14"/>
       <c r="S56" s="14"/>
-      <c r="T56" s="65">
+      <c r="T56" s="61">
         <f>+D45</f>
         <v>0</v>
       </c>
-      <c r="U56" s="65"/>
-      <c r="V56" s="65"/>
-      <c r="W56" s="65"/>
-      <c r="X56" s="65"/>
-      <c r="Y56" s="65"/>
-      <c r="Z56" s="65"/>
-      <c r="AA56" s="65"/>
-      <c r="AB56" s="66">
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="62">
         <f>+L45</f>
         <v>0</v>
       </c>
-      <c r="AC56" s="66"/>
-      <c r="AD56" s="66"/>
-      <c r="AE56" s="66"/>
-      <c r="AF56" s="66"/>
-      <c r="AG56" s="66"/>
-      <c r="AH56" s="66"/>
+      <c r="AC56" s="62"/>
+      <c r="AD56" s="62"/>
+      <c r="AE56" s="62"/>
+      <c r="AF56" s="62"/>
+      <c r="AG56" s="62"/>
+      <c r="AH56" s="62"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="T57" s="68">
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="T57" s="74">
         <f>+A47</f>
         <v>0</v>
       </c>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
-      <c r="AE57" s="68"/>
-      <c r="AF57" s="68"/>
-      <c r="AG57" s="68"/>
-      <c r="AH57" s="68"/>
+      <c r="U57" s="74"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
+      <c r="X57" s="74"/>
+      <c r="Y57" s="74"/>
+      <c r="Z57" s="74"/>
+      <c r="AA57" s="74"/>
+      <c r="AB57" s="74"/>
+      <c r="AC57" s="74"/>
+      <c r="AD57" s="74"/>
+      <c r="AE57" s="74"/>
+      <c r="AF57" s="74"/>
+      <c r="AG57" s="74"/>
+      <c r="AH57" s="74"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="69" t="s">
+      <c r="T58" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="U58" s="69"/>
-      <c r="V58" s="69"/>
-      <c r="W58" s="69"/>
-      <c r="X58" s="69"/>
-      <c r="Y58" s="69"/>
-      <c r="Z58" s="69"/>
-      <c r="AA58" s="69"/>
-      <c r="AB58" s="69"/>
-      <c r="AC58" s="69"/>
-      <c r="AD58" s="69"/>
-      <c r="AE58" s="69"/>
-      <c r="AF58" s="69"/>
-      <c r="AG58" s="69"/>
-      <c r="AH58" s="69"/>
+      <c r="U58" s="75"/>
+      <c r="V58" s="75"/>
+      <c r="W58" s="75"/>
+      <c r="X58" s="75"/>
+      <c r="Y58" s="75"/>
+      <c r="Z58" s="75"/>
+      <c r="AA58" s="75"/>
+      <c r="AB58" s="75"/>
+      <c r="AC58" s="75"/>
+      <c r="AD58" s="75"/>
+      <c r="AE58" s="75"/>
+      <c r="AF58" s="75"/>
+      <c r="AG58" s="75"/>
+      <c r="AH58" s="75"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
@@ -4010,17 +4010,17 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-      <c r="Q60" s="61">
+      <c r="Q60" s="76">
         <f ca="1">TODAY()</f>
         <v>46061</v>
       </c>
-      <c r="R60" s="61"/>
-      <c r="S60" s="61"/>
-      <c r="T60" s="61"/>
-      <c r="U60" s="61"/>
-      <c r="V60" s="61"/>
-      <c r="W60" s="61"/>
-      <c r="X60" s="61"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
       <c r="Y60" s="5" t="s">
         <v>30</v>
       </c>
@@ -4099,42 +4099,42 @@
       <c r="AE62" s="2"/>
     </row>
     <row r="63" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="62"/>
-      <c r="X63" s="62"/>
-      <c r="Y63" s="62"/>
-      <c r="Z63" s="62"/>
-      <c r="AA63" s="62"/>
-      <c r="AB63" s="62"/>
-      <c r="AC63" s="62"/>
-      <c r="AD63" s="62"/>
-      <c r="AE63" s="62"/>
-      <c r="AF63" s="62"/>
-      <c r="AG63" s="62"/>
-      <c r="AH63" s="62"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="77"/>
+      <c r="T63" s="77"/>
+      <c r="U63" s="77"/>
+      <c r="V63" s="77"/>
+      <c r="W63" s="77"/>
+      <c r="X63" s="77"/>
+      <c r="Y63" s="77"/>
+      <c r="Z63" s="77"/>
+      <c r="AA63" s="77"/>
+      <c r="AB63" s="77"/>
+      <c r="AC63" s="77"/>
+      <c r="AD63" s="77"/>
+      <c r="AE63" s="77"/>
+      <c r="AF63" s="77"/>
+      <c r="AG63" s="77"/>
+      <c r="AH63" s="77"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
@@ -4244,15 +4244,48 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AH12"/>
-    <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A3:AI3"/>
-    <mergeCell ref="A4:AI4"/>
-    <mergeCell ref="A6:AH6"/>
-    <mergeCell ref="A8:AH8"/>
+    <mergeCell ref="Q60:X60"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="T56:AA56"/>
+    <mergeCell ref="AB56:AH56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="T57:AH57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="T58:AH58"/>
+    <mergeCell ref="B52:R52"/>
+    <mergeCell ref="G46:AH46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:Y47"/>
+    <mergeCell ref="AA47:AH47"/>
+    <mergeCell ref="H48:Z48"/>
+    <mergeCell ref="W50:AB50"/>
+    <mergeCell ref="AD50:AH50"/>
+    <mergeCell ref="I51:Q51"/>
+    <mergeCell ref="S51:Y51"/>
+    <mergeCell ref="A39:AH39"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:AH45"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="AB23:AH23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="T24:AH24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="T25:AH25"/>
+    <mergeCell ref="Q27:X27"/>
+    <mergeCell ref="A30:AH30"/>
+    <mergeCell ref="A31:AH31"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="G13:AH13"/>
     <mergeCell ref="A14:F14"/>
@@ -4266,48 +4299,15 @@
     <mergeCell ref="AC17:AH17"/>
     <mergeCell ref="I18:Q18"/>
     <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="T23:AA23"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="T24:AH24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="T25:AH25"/>
-    <mergeCell ref="Q27:X27"/>
-    <mergeCell ref="A30:AH30"/>
-    <mergeCell ref="A31:AH31"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A39:AH39"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:AH45"/>
-    <mergeCell ref="B52:R52"/>
-    <mergeCell ref="G46:AH46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:Y47"/>
-    <mergeCell ref="AA47:AH47"/>
-    <mergeCell ref="H48:Z48"/>
-    <mergeCell ref="W50:AB50"/>
-    <mergeCell ref="AD50:AH50"/>
-    <mergeCell ref="I51:Q51"/>
-    <mergeCell ref="S51:Y51"/>
-    <mergeCell ref="Q60:X60"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="T56:AA56"/>
-    <mergeCell ref="AB56:AH56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="T57:AH57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="T58:AH58"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AH12"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A4:AI4"/>
+    <mergeCell ref="A6:AH6"/>
+    <mergeCell ref="A8:AH8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4319,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2A8EDD-7D35-46AF-AA86-A200C49CAFBA}">
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AO36" sqref="AO36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BA8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4361,99 +4361,99 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
     </row>
     <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="80">
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="115">
         <v>2026</v>
       </c>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
       <c r="AC3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="81">
+      <c r="AD3" s="116">
         <v>17</v>
       </c>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
     </row>
     <row r="4" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
     </row>
     <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="28">
         <v>4</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="83">
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118">
         <v>2026</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
@@ -4476,52 +4476,52 @@
       <c r="AH5" s="29"/>
     </row>
     <row r="6" spans="1:35" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84">
+      <c r="A6" s="119">
         <f>+U8</f>
         <v>0</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85">
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="110">
         <f>+U9</f>
         <v>0</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="78">
+      <c r="G6" s="110"/>
+      <c r="H6" s="114">
         <f>+U10</f>
         <v>0</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
-      <c r="R6" s="86">
+      <c r="R6" s="120">
         <f>+B8</f>
         <v>0</v>
       </c>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="85">
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="110">
         <f>+B9</f>
         <v>0</v>
       </c>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="78">
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="114">
         <f>+B10</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
       <c r="AF6" s="30"/>
@@ -4529,568 +4529,568 @@
       <c r="AH6" s="30"/>
     </row>
     <row r="7" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
     </row>
     <row r="8" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
     </row>
     <row r="9" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
     </row>
     <row r="11" spans="1:35" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112"/>
     </row>
     <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="89"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
       <c r="AE12" s="91"/>
       <c r="AF12" s="91"/>
       <c r="AG12" s="91"/>
       <c r="AH12" s="91"/>
     </row>
     <row r="13" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
     </row>
     <row r="14" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
     </row>
     <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="91"/>
       <c r="N15" s="91"/>
       <c r="O15" s="91"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
       <c r="AF15" s="91"/>
       <c r="AG15" s="91"/>
       <c r="AH15" s="91"/>
       <c r="AI15" s="26"/>
     </row>
     <row r="16" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
     </row>
     <row r="17" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="94"/>
     </row>
     <row r="18" spans="2:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
     </row>
     <row r="19" spans="2:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
       <c r="P19" s="32"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
     </row>
     <row r="20" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
       <c r="P20" s="33"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="107"/>
     </row>
     <row r="21" spans="2:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="100" t="s">
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="100"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
     </row>
     <row r="22" spans="2:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="104">
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="93">
         <f>+B10</f>
         <v>0</v>
       </c>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="105"/>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
       <c r="AC22" s="91">
         <f>+U10</f>
         <v>0</v>
@@ -5102,28 +5102,28 @@
       <c r="AH22" s="91"/>
     </row>
     <row r="23" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="100">
+      <c r="B23" s="99">
         <f>+H13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
       <c r="U23" s="101">
         <f>+Z13</f>
         <v>0</v>
@@ -5143,77 +5143,77 @@
       <c r="AH23" s="101"/>
     </row>
     <row r="24" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
     </row>
     <row r="25" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="92">
+      <c r="B25" s="89">
         <f>+B15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
       <c r="P25" s="34"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="93">
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="92">
         <f>+U15</f>
         <v>0</v>
       </c>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="93"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="92"/>
       <c r="AF25" s="91">
         <f>+AF15</f>
         <v>0</v>
@@ -5222,37 +5222,37 @@
       <c r="AH25" s="91"/>
     </row>
     <row r="26" spans="2:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104">
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="93">
         <f>+B9</f>
         <v>0</v>
       </c>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
       <c r="AD26" s="91">
         <f>+U9</f>
         <v>0</v>
@@ -5263,115 +5263,115 @@
       <c r="AH26" s="91"/>
     </row>
     <row r="27" spans="2:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="100">
+      <c r="B27" s="99">
         <f>+H13</f>
         <v>0</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="100"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="100"/>
-      <c r="AE27" s="100"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="100"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
     </row>
     <row r="28" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="100"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="100"/>
-      <c r="AH28" s="100"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
     </row>
     <row r="29" spans="2:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="108">
+      <c r="B29" s="96">
         <f>+B15</f>
         <v>0</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
       <c r="P29" s="34"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="109">
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="97">
         <f>+U25</f>
         <v>0</v>
       </c>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="109"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="97"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="97"/>
       <c r="AF29" s="91">
         <f>+AF25</f>
         <v>0</v>
@@ -5381,19 +5381,19 @@
       <c r="AI29" s="26"/>
     </row>
     <row r="30" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="103">
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="98">
         <f>+K26</f>
         <v>0</v>
       </c>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
       <c r="L30" s="91">
         <f>+L22</f>
         <v>0</v>
@@ -5402,22 +5402,22 @@
       <c r="N30" s="91"/>
       <c r="O30" s="91"/>
       <c r="P30" s="35"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="104">
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="93">
         <f>+AD26</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
       <c r="AD30" s="91">
         <f>+AC22</f>
         <v>0</v>
@@ -5428,74 +5428,74 @@
       <c r="AH30" s="91"/>
     </row>
     <row r="31" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="93"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
     </row>
     <row r="32" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="93"/>
-      <c r="AC32" s="93"/>
-      <c r="AD32" s="93"/>
-      <c r="AE32" s="93"/>
-      <c r="AF32" s="93"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
     </row>
     <row r="33" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="36"/>
@@ -5513,10 +5513,10 @@
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
@@ -5533,42 +5533,42 @@
       <c r="AH33" s="35"/>
     </row>
     <row r="34" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="92">
+      <c r="B34" s="89">
         <f>+B29</f>
         <v>0</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="107"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="90"/>
       <c r="N34" s="91"/>
       <c r="O34" s="91"/>
       <c r="P34" s="35"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="93">
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="92">
         <f>+U29</f>
         <v>0</v>
       </c>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="93"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="93"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="93"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="92"/>
+      <c r="Z34" s="92"/>
+      <c r="AA34" s="92"/>
+      <c r="AB34" s="92"/>
+      <c r="AC34" s="92"/>
+      <c r="AD34" s="92"/>
+      <c r="AE34" s="92"/>
       <c r="AF34" s="91">
         <f>+AF29</f>
         <v>0</v>
@@ -5577,423 +5577,298 @@
       <c r="AH34" s="91"/>
     </row>
     <row r="35" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
       <c r="P35" s="38"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="110"/>
-      <c r="AF35" s="110"/>
-      <c r="AG35" s="110"/>
-      <c r="AH35" s="110"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="84"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="84"/>
+      <c r="AF35" s="84"/>
+      <c r="AG35" s="84"/>
+      <c r="AH35" s="84"/>
     </row>
     <row r="36" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="110"/>
-      <c r="W36" s="110"/>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="110"/>
-      <c r="Z36" s="110"/>
-      <c r="AA36" s="110"/>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="110"/>
-      <c r="AE36" s="110"/>
-      <c r="AF36" s="110"/>
-      <c r="AG36" s="110"/>
-      <c r="AH36" s="110"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="84"/>
+      <c r="AA36" s="84"/>
+      <c r="AB36" s="84"/>
+      <c r="AC36" s="84"/>
+      <c r="AD36" s="84"/>
+      <c r="AE36" s="84"/>
+      <c r="AF36" s="84"/>
+      <c r="AG36" s="84"/>
+      <c r="AH36" s="84"/>
     </row>
     <row r="37" spans="2:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="113"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="81"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="115">
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="85">
         <f>+B37</f>
         <v>0</v>
       </c>
-      <c r="V37" s="118"/>
-      <c r="W37" s="116">
+      <c r="V37" s="88"/>
+      <c r="W37" s="86">
         <f>+E37</f>
         <v>0</v>
       </c>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="116"/>
-      <c r="AB37" s="116"/>
-      <c r="AC37" s="116"/>
-      <c r="AD37" s="117">
+      <c r="X37" s="86"/>
+      <c r="Y37" s="86"/>
+      <c r="Z37" s="86"/>
+      <c r="AA37" s="86"/>
+      <c r="AB37" s="86"/>
+      <c r="AC37" s="86"/>
+      <c r="AD37" s="87">
         <f>+L37</f>
         <v>0</v>
       </c>
-      <c r="AE37" s="113"/>
+      <c r="AE37" s="81"/>
       <c r="AF37" s="39"/>
     </row>
     <row r="38" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
       <c r="P38" s="30"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="111" t="s">
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="V38" s="111"/>
-      <c r="W38" s="111"/>
-      <c r="X38" s="111"/>
-      <c r="Y38" s="111"/>
-      <c r="Z38" s="111"/>
-      <c r="AA38" s="111"/>
-      <c r="AB38" s="111"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="111"/>
-      <c r="AE38" s="111"/>
-      <c r="AF38" s="111"/>
-      <c r="AG38" s="111"/>
-      <c r="AH38" s="111"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="82"/>
+      <c r="AB38" s="82"/>
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="82"/>
+      <c r="AG38" s="82"/>
+      <c r="AH38" s="82"/>
     </row>
     <row r="39" spans="2:34" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="113" t="s">
+      <c r="D39" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="112"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
       <c r="U39" s="30"/>
-      <c r="V39" s="113" t="s">
+      <c r="V39" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="W39" s="113"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="113"/>
-      <c r="AA39" s="113"/>
-      <c r="AB39" s="113"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="113"/>
+      <c r="W39" s="81"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="81"/>
+      <c r="Z39" s="81"/>
+      <c r="AA39" s="81"/>
+      <c r="AB39" s="81"/>
+      <c r="AC39" s="81"/>
+      <c r="AD39" s="81"/>
+      <c r="AE39" s="81"/>
+      <c r="AF39" s="81"/>
+      <c r="AG39" s="81"/>
+      <c r="AH39" s="81"/>
     </row>
     <row r="40" spans="2:34" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="120"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
       <c r="U40" s="30"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="113"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="113"/>
-      <c r="Z40" s="113"/>
-      <c r="AA40" s="113"/>
-      <c r="AB40" s="113"/>
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="113"/>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="113"/>
-      <c r="AG40" s="113"/>
-      <c r="AH40" s="113"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="81"/>
+      <c r="AD40" s="81"/>
+      <c r="AE40" s="81"/>
+      <c r="AF40" s="81"/>
+      <c r="AG40" s="81"/>
+      <c r="AH40" s="81"/>
     </row>
     <row r="41" spans="2:34" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
       <c r="P41" s="39"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="112"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
       <c r="U41" s="30"/>
-      <c r="V41" s="120"/>
-      <c r="W41" s="120"/>
-      <c r="X41" s="120"/>
-      <c r="Y41" s="120"/>
-      <c r="Z41" s="120"/>
-      <c r="AA41" s="120"/>
-      <c r="AB41" s="120"/>
-      <c r="AC41" s="120"/>
-      <c r="AD41" s="120"/>
-      <c r="AE41" s="120"/>
-      <c r="AF41" s="120"/>
-      <c r="AG41" s="120"/>
-      <c r="AH41" s="120"/>
+      <c r="V41" s="80"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="80"/>
+      <c r="Z41" s="80"/>
+      <c r="AA41" s="80"/>
+      <c r="AB41" s="80"/>
+      <c r="AC41" s="80"/>
+      <c r="AD41" s="80"/>
+      <c r="AE41" s="80"/>
+      <c r="AF41" s="80"/>
+      <c r="AG41" s="80"/>
+      <c r="AH41" s="80"/>
     </row>
     <row r="42" spans="2:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="119" t="s">
+      <c r="B42" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="119"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="112"/>
-      <c r="S42" s="112"/>
-      <c r="T42" s="112"/>
-      <c r="U42" s="119" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="79"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="79"/>
+      <c r="U42" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="V42" s="119"/>
-      <c r="W42" s="119"/>
-      <c r="X42" s="119"/>
-      <c r="Y42" s="119"/>
-      <c r="Z42" s="119"/>
-      <c r="AA42" s="119"/>
-      <c r="AB42" s="119"/>
-      <c r="AC42" s="119"/>
-      <c r="AD42" s="119"/>
-      <c r="AE42" s="119"/>
-      <c r="AF42" s="119"/>
-      <c r="AG42" s="119"/>
-      <c r="AH42" s="119"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="78"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="78"/>
+      <c r="AA42" s="78"/>
+      <c r="AB42" s="78"/>
+      <c r="AC42" s="78"/>
+      <c r="AD42" s="78"/>
+      <c r="AE42" s="78"/>
+      <c r="AF42" s="78"/>
+      <c r="AG42" s="78"/>
+      <c r="AH42" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="B42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="U42:AH42"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:AH40"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:AH41"/>
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="U38:AH38"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="V39:AH39"/>
-    <mergeCell ref="B35:O36"/>
-    <mergeCell ref="Q35:T36"/>
-    <mergeCell ref="U35:AH36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U34:AE34"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="Y30:AC30"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="B31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="U31:AH31"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="U32:AH32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="U29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U27:AH27"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:AH28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:AE25"/>
-    <mergeCell ref="AF25:AH25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AH23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="U24:AH24"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AH21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AH22"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AD19"/>
-    <mergeCell ref="AE19:AH19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:AH20"/>
-    <mergeCell ref="B17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AH17"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AH18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AH16"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AH14"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="Y6:AC6"/>
     <mergeCell ref="G2:W2"/>
     <mergeCell ref="G3:W3"/>
     <mergeCell ref="X3:AB3"/>
@@ -6017,6 +5892,131 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AH16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AH14"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AD19"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:AH20"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AH17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AH18"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AH23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="U24:AH24"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AH21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:AH27"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:AH28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:AE25"/>
+    <mergeCell ref="AF25:AH25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U34:AE34"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="B31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="U31:AH31"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="U32:AH32"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="U38:AH38"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="V39:AH39"/>
+    <mergeCell ref="B35:O36"/>
+    <mergeCell ref="Q35:T36"/>
+    <mergeCell ref="U35:AH36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="B42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="U42:AH42"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:AH40"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:AH41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6027,7 +6027,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13:AH14"/>
+      <selection activeCell="AJ12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,64 +6098,64 @@
       <c r="G4" s="124"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="121">
@@ -6243,7 +6243,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="X11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6302,27 +6302,27 @@
       <c r="G4" s="124"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
@@ -6403,8 +6403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F73AF6-B3D3-40BA-9568-EC96CE6109F4}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35:AE35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6422,78 +6422,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="140"/>
+      <c r="AH1" s="140"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="122" t="s">
@@ -6534,42 +6534,42 @@
       <c r="AH3" s="122"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
@@ -6610,194 +6610,194 @@
       <c r="AH5" s="122"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AB6" s="140"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="140"/>
+      <c r="AE6" s="140"/>
+      <c r="AF6" s="140"/>
+      <c r="AG6" s="140"/>
+      <c r="AH6" s="140"/>
       <c r="AI6" s="43"/>
       <c r="AJ6" s="43"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140"/>
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="140"/>
+      <c r="AF7" s="140"/>
+      <c r="AG7" s="140"/>
+      <c r="AH7" s="140"/>
       <c r="AI7" s="43"/>
       <c r="AJ7" s="43"/>
     </row>
     <row r="8" spans="1:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="127"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
+      <c r="W8" s="141"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="141"/>
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="141"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="141"/>
+      <c r="AG8" s="141"/>
+      <c r="AH8" s="141"/>
     </row>
     <row r="9" spans="1:51" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="128"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="142"/>
+      <c r="AD9" s="142"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="45"/>
       <c r="AJ9" s="45"/>
     </row>
     <row r="10" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="140"/>
+      <c r="AD10" s="140"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="140"/>
+      <c r="AG10" s="140"/>
+      <c r="AH10" s="140"/>
       <c r="AI10" s="45"/>
       <c r="AJ10" s="45"/>
     </row>
@@ -6838,27 +6838,27 @@
       <c r="AJ11" s="45"/>
     </row>
     <row r="12" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="129">
+      <c r="A12" s="143">
         <f>+APPLICATION!B8</f>
         <v>0</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="47"/>
-      <c r="I12" s="131">
+      <c r="I12" s="138">
         <f>+APPLICATION!B10</f>
         <v>0</v>
       </c>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="132"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="139"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -6932,23 +6932,23 @@
       <c r="AY13" s="45"/>
     </row>
     <row r="14" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
@@ -7037,27 +7037,27 @@
       <c r="AY15" s="45"/>
     </row>
     <row r="16" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133">
+      <c r="A16" s="136">
         <f>+APPLICATION!U8</f>
         <v>0</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
       <c r="H16" s="49"/>
-      <c r="I16" s="131">
+      <c r="I16" s="138">
         <f>+APPLICATION!U10</f>
         <v>0</v>
       </c>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="132"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="139"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="46"/>
       <c r="AA16" s="46"/>
@@ -7138,7 +7138,7 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="108">
         <f>+APPLICATION!B12</f>
         <v>0</v>
       </c>
@@ -7191,22 +7191,22 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="93">
+      <c r="F21" s="92">
         <f>+APPLICATION!B15</f>
         <v>0</v>
       </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
       <c r="T21" s="124" t="s">
         <v>44</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F26" s="108">
         <f>+APPLICATION!U12</f>
         <v>0</v>
       </c>
@@ -7347,22 +7347,22 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="109">
         <f>+APPLICATION!U15</f>
         <v>0</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
       <c r="T27" s="124" t="s">
         <v>44</v>
       </c>
@@ -7396,18 +7396,18 @@
         <f>+APPLICATION!B37</f>
         <v>0</v>
       </c>
-      <c r="B32" s="136">
+      <c r="B32" s="133">
         <f>+APPLICATION!E37</f>
         <v>0</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137">
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="134">
         <f>+APPLICATION!L37</f>
         <v>0</v>
       </c>
-      <c r="G32" s="136"/>
+      <c r="G32" s="133"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="23"/>
@@ -7421,21 +7421,21 @@
       <c r="Y32" s="55"/>
       <c r="Z32" s="55"/>
       <c r="AA32" s="55"/>
-      <c r="AB32" s="144">
+      <c r="AB32" s="132">
         <f>+APPLICATION!X3</f>
         <v>2026</v>
       </c>
-      <c r="AC32" s="144"/>
-      <c r="AD32" s="144"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
       <c r="AE32" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AF32" s="142">
+      <c r="AF32" s="130">
         <f>+APPLICATION!AD3</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="142"/>
-      <c r="AH32" s="142"/>
+      <c r="AG32" s="130"/>
+      <c r="AH32" s="130"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C33" s="122" t="s">
@@ -7446,18 +7446,18 @@
       <c r="Z33" s="58"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V35" s="119" t="s">
+      <c r="V35" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="W35" s="119"/>
-      <c r="X35" s="119"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="119"/>
-      <c r="AA35" s="119"/>
-      <c r="AB35" s="119"/>
-      <c r="AC35" s="119"/>
-      <c r="AD35" s="119"/>
-      <c r="AE35" s="119"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="78"/>
+      <c r="AA35" s="78"/>
+      <c r="AB35" s="78"/>
+      <c r="AC35" s="78"/>
+      <c r="AD35" s="78"/>
+      <c r="AE35" s="78"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V36" s="122" t="s">
@@ -7479,35 +7479,35 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="143" t="str">
+      <c r="A40" s="131" t="str">
         <f>+APPLICATION!F4</f>
         <v>BERNADETTE T. SAMANDRE</v>
       </c>
-      <c r="B40" s="143"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="143"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
     </row>
     <row r="42" spans="1:31" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -7522,21 +7522,21 @@
       <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="138">
+      <c r="E44" s="126">
         <f>+F26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
-      <c r="O44" s="139"/>
-      <c r="P44" s="139"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="127"/>
+      <c r="N44" s="127"/>
+      <c r="O44" s="127"/>
+      <c r="P44" s="127"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7545,18 +7545,18 @@
       <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="140"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
-      <c r="M45" s="141"/>
-      <c r="N45" s="141"/>
-      <c r="O45" s="141"/>
-      <c r="P45" s="141"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="129"/>
+      <c r="M45" s="129"/>
+      <c r="N45" s="129"/>
+      <c r="O45" s="129"/>
+      <c r="P45" s="129"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
@@ -7565,18 +7565,18 @@
       <c r="B46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="140"/>
-      <c r="N46" s="140"/>
-      <c r="O46" s="140"/>
-      <c r="P46" s="140"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7606,6 +7606,43 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A6:AH6"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AH5"/>
+    <mergeCell ref="A7:AH7"/>
+    <mergeCell ref="A8:AH8"/>
+    <mergeCell ref="A9:AG9"/>
+    <mergeCell ref="A10:AH10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:R27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="E44:P44"/>
     <mergeCell ref="E45:P45"/>
     <mergeCell ref="E46:P46"/>
@@ -7616,43 +7653,6 @@
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="A41:K41"/>
     <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:R27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="A7:AH7"/>
-    <mergeCell ref="A8:AH8"/>
-    <mergeCell ref="A9:AG9"/>
-    <mergeCell ref="A10:AH10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="A6:AH6"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AH5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/frontend/public/consent_m_f.xlsx
+++ b/frontend/public/consent_m_f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\marriage-system\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8291AE54-D67A-496C-B45D-EF7CFB048277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE427F73-5C01-4356-A5ED-A93EEB1058D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{041FD1C1-F469-4138-9DDE-F5DD3D14C0F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{041FD1C1-F469-4138-9DDE-F5DD3D14C0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSENT M&amp;F" sheetId="1" r:id="rId1"/>
@@ -1802,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF06905E-7425-4C08-B32A-5C5925F78E54}">
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="BD18" sqref="BD18"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56:AA56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6243,7 +6243,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X11" sqref="A1:XFD1048576"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6403,7 +6403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F73AF6-B3D3-40BA-9568-EC96CE6109F4}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E44" sqref="E44:P44"/>
     </sheetView>
   </sheetViews>
